--- a/LC 2200 Instructions.xlsx
+++ b/LC 2200 Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erica\Documents\Georgia Tech Files\Spring 2022\CS 2200 - Introduction to Systems and Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C610658B-34BD-4C7F-9C68-32DAC0D6FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F1CBA-140A-497F-8C81-DDAF480E17A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14205" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{7AEE0DF1-122A-4D33-A2BC-B22034C53EE0}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7AEE0DF1-122A-4D33-A2BC-B22034C53EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>Instruction</t>
   </si>
@@ -405,7 +405,10 @@
     <t>Add contents of reg Soure Register 1 with contents of Source Register 2, store results in the Destination Register.</t>
   </si>
   <si>
-    <t>Add the Immediate value to the contents of reg Souce Register 1 and store the result in the D+AH124estination register</t>
+    <t>Add the Immediate value to the contents of reg Souce Register 1 and store the result in the Destination register</t>
+  </si>
+  <si>
+    <t>dec value</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -647,28 +650,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,6 +701,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,20 +737,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C180A64-74D0-4AAB-BE68-F67BFC215A1A}">
-  <dimension ref="A4:AM23"/>
+  <dimension ref="A4:AM73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH59" sqref="AH59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,12 +1156,12 @@
   <sheetData>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
@@ -1183,13 +1189,13 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="35"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="38"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1319,11 +1325,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AG5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="32" t="s">
+      <c r="AH5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AI5" s="40" t="s">
@@ -1335,857 +1341,857 @@
       <c r="AM5" s="40"/>
     </row>
     <row r="6" spans="1:39" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="13" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="13" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="29" t="s">
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AI6" s="36" t="s">
+      <c r="AI6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
     </row>
     <row r="7" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="13" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="29" t="s">
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AI7" s="38" t="s">
+      <c r="AI7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
     </row>
     <row r="8" spans="1:39" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="13" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="13" t="s">
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="29" t="s">
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AI8" s="38" t="s">
+      <c r="AI8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
     </row>
     <row r="9" spans="1:39" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="13" t="s">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="37" t="s">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AI9" s="38" t="s">
+      <c r="AI9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
     </row>
     <row r="10" spans="1:39" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="13" t="s">
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="29" t="s">
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AI10" s="38" t="s">
+      <c r="AI10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="30" t="s">
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AI11" s="38" t="s">
+      <c r="AI11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
     </row>
     <row r="12" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="29" t="s">
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="38" t="s">
+      <c r="AI12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="26"/>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" t="s">
         <v>32</v>
       </c>
       <c r="AI13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
     </row>
     <row r="14" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="13" t="s">
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="29" t="s">
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AI14" s="38" t="s">
+      <c r="AI14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
     </row>
     <row r="15" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="13" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="29" t="s">
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AI15" s="38" t="s">
+      <c r="AI15" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
     </row>
     <row r="16" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="13" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="29" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AI16" s="38" t="s">
+      <c r="AI16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -2220,60 +2226,1016 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
     </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <f>31-(COLUMN(B53) - 2)</f>
+        <v>31</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" ref="C53:AG53" si="1">31-(COLUMN(C53) - 2)</f>
+        <v>30</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Q53" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R53" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S53" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="T53" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="U53" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="V53" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W53" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="X53" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y53" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z53" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA53" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AB53" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC53" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD53" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AE53" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AF53" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG53" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="41"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="41">
+        <f>AG55*POWER(2, 0)+AF55*POWER(2, 1)+AE55*POWER(2,2)+AD55*POWER(2,3)+AC55*POWER(2,4)+AB55*POWER(2,5)+AA55*POWER(2,6)+Z55*POWER(2,7)+Y55*POWER(2,8)+X55*POWER(2,9)+W55*POWER(2, 10)+V55*POWER(2,11)+U55*POWER(2,12)+T55*POWER(2,13)+S55*POWER(2,14)+R55*POWER(2,15)+Q55*POWER(2,16)+P55*POWER(2, 17)+O55*POWER(2,18)+N55*POWER(2,19)+M55*POWER(2,20)+L55*POWER(2,21)+K55*POWER(2,22)+J55*POWER(2,23)+I55*POWER(2,24)+H55*POWER(2,25)+G55*POWER(2,26)+F55*POWER(2,27)+E55*POWER(2,28)+D55*POWER(2,29)+C55*POWER(2,30)+B55*POWER(2,31)</f>
+        <v>123731973</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="9">
+        <v>0</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="31"/>
+      <c r="AG56" s="31"/>
+      <c r="AH56" s="41"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="41">
+        <f t="shared" ref="AH56:AH73" si="2">AG57*POWER(2, 0)+AF57*POWER(2, 1)+AE57*POWER(2,2)+AD57*POWER(2,3)+AC57*POWER(2,4)+AB57*POWER(2,5)+AA57*POWER(2,6)+Z57*POWER(2,7)+Y57*POWER(2,8)+X57*POWER(2,9)+W57*POWER(2, 10)+V57*POWER(2,11)+U57*POWER(2,12)+T57*POWER(2,13)+S57*POWER(2,14)+R57*POWER(2,15)+Q57*POWER(2,16)+P57*POWER(2, 17)+O57*POWER(2,18)+N57*POWER(2,19)+M57*POWER(2,20)+L57*POWER(2,21)+K57*POWER(2,22)+J57*POWER(2,23)+I57*POWER(2,24)+H57*POWER(2,25)+G57*POWER(2,26)+F57*POWER(2,27)+E57*POWER(2,28)+D57*POWER(2,29)+C57*POWER(2,30)+B57*POWER(2,31)</f>
+        <v>390070272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="31"/>
+      <c r="Y58" s="31"/>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
+      <c r="AB58" s="31"/>
+      <c r="AC58" s="31"/>
+      <c r="AD58" s="31"/>
+      <c r="AE58" s="31"/>
+      <c r="AF58" s="31"/>
+      <c r="AG58" s="31"/>
+      <c r="AH58" s="41"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="41">
+        <f t="shared" si="2"/>
+        <v>660602881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="9">
+        <v>0</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="31"/>
+      <c r="Y60" s="31"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="31"/>
+      <c r="AB60" s="31"/>
+      <c r="AC60" s="31"/>
+      <c r="AD60" s="31"/>
+      <c r="AE60" s="31"/>
+      <c r="AF60" s="31"/>
+      <c r="AG60" s="31"/>
+      <c r="AH60" s="41"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH61" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="9">
+        <v>0</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="31"/>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="31"/>
+      <c r="AA62" s="31"/>
+      <c r="AB62" s="31"/>
+      <c r="AC62" s="31"/>
+      <c r="AD62" s="31"/>
+      <c r="AE62" s="31"/>
+      <c r="AF62" s="31"/>
+      <c r="AG62" s="31"/>
+      <c r="AH62" s="41"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH63" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="31"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="31"/>
+      <c r="AA64" s="31"/>
+      <c r="AB64" s="31"/>
+      <c r="AC64" s="31"/>
+      <c r="AD64" s="31"/>
+      <c r="AE64" s="31"/>
+      <c r="AF64" s="31"/>
+      <c r="AG64" s="31"/>
+      <c r="AH64" s="41"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH65" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="41"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH67" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="31"/>
+      <c r="X68" s="31"/>
+      <c r="Y68" s="31"/>
+      <c r="Z68" s="31"/>
+      <c r="AA68" s="31"/>
+      <c r="AB68" s="31"/>
+      <c r="AC68" s="31"/>
+      <c r="AD68" s="31"/>
+      <c r="AE68" s="31"/>
+      <c r="AF68" s="31"/>
+      <c r="AG68" s="31"/>
+      <c r="AH68" s="41"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH69" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="9">
+        <v>1</v>
+      </c>
+      <c r="C70" s="9">
+        <v>0</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="31"/>
+      <c r="X70" s="31"/>
+      <c r="Y70" s="31"/>
+      <c r="Z70" s="31"/>
+      <c r="AA70" s="31"/>
+      <c r="AB70" s="31"/>
+      <c r="AC70" s="31"/>
+      <c r="AD70" s="31"/>
+      <c r="AE70" s="31"/>
+      <c r="AF70" s="31"/>
+      <c r="AG70" s="31"/>
+      <c r="AH70" s="41"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH71" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9">
+        <v>0</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="31"/>
+      <c r="Y72" s="31"/>
+      <c r="Z72" s="31"/>
+      <c r="AA72" s="31"/>
+      <c r="AB72" s="31"/>
+      <c r="AC72" s="31"/>
+      <c r="AD72" s="31"/>
+      <c r="AE72" s="31"/>
+      <c r="AF72" s="31"/>
+      <c r="AG72" s="31"/>
+      <c r="AH72" s="41"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH73" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="72">
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="N72:AG72"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:AG68"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:AG70"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:AG62"/>
+    <mergeCell ref="N64:AG64"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:AG58"/>
+    <mergeCell ref="AD56:AG56"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:AG60"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="AD54:AG54"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
     <mergeCell ref="AI20:AM20"/>
     <mergeCell ref="AI21:AM21"/>
     <mergeCell ref="AH4:AM4"/>
@@ -2303,6 +3265,7 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="J10:M10"/>
     <mergeCell ref="B22:AI22"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="F7:I7"/>
@@ -2319,7 +3282,6 @@
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
